--- a/Test Data Driven/AI-Generated/TC15-Access Test Suites and View Execution Results.xlsx
+++ b/Test Data Driven/AI-Generated/TC15-Access Test Suites and View Execution Results.xlsx
@@ -446,25 +446,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteLinks_executions_id</t>
+          <t>link_testSuiteActions_executions_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteLinks_project_id</t>
+          <t>link_testSuiteActions_project_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteLinks_team_id</t>
+          <t>link_testSuiteActions_team_id</t>
         </is>
       </c>
     </row>
